--- a/WTP_BDM/ChoiceText_final.xlsx
+++ b/WTP_BDM/ChoiceText_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/WTP_BDM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/WTP_social/WTP_BDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5754C-5568-9C4F-8317-A4B54E19F459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D31F53-F7DF-1F4A-94FC-59193AA50CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="460" windowWidth="28180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="2920" windowWidth="28180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>choices</t>
   </si>
@@ -165,9 +165,6 @@
 with friends</t>
   </si>
   <si>
-    <t>Snapchating your friends</t>
-  </si>
-  <si>
     <t>Going out to dinner with friends</t>
   </si>
   <si>
@@ -235,6 +232,190 @@
   </si>
   <si>
     <t>Having hundreds of friends on Facebook</t>
+  </si>
+  <si>
+    <t>Snapchatting your friends</t>
+  </si>
+  <si>
+    <t>Putting together 
+a puzzle</t>
+  </si>
+  <si>
+    <t>Practicing an
+ instrument</t>
+  </si>
+  <si>
+    <t>Watching a football 
+game from home</t>
+  </si>
+  <si>
+    <t>Buying coffee on 
+the way to work</t>
+  </si>
+  <si>
+    <t>Going for a walk 
+in the park</t>
+  </si>
+  <si>
+    <t>Practicing photography</t>
+  </si>
+  <si>
+    <t>Teaching yourself a 
+different language</t>
+  </si>
+  <si>
+    <t>Planting flowers 
+in a garden</t>
+  </si>
+  <si>
+    <t>Trying out a new 
+recipe at home</t>
+  </si>
+  <si>
+    <t>Shopping online</t>
+  </si>
+  <si>
+    <t>Drawing a picture</t>
+  </si>
+  <si>
+    <t>Exercising from home</t>
+  </si>
+  <si>
+    <t>Getting a slice of pizza 
+by yourself</t>
+  </si>
+  <si>
+    <t>Trying to solve a 
+Rubik’s cube</t>
+  </si>
+  <si>
+    <t>Taking a nap</t>
+  </si>
+  <si>
+    <t>Taking a road trip 
+by yourself</t>
+  </si>
+  <si>
+    <t>Watching Netflix at home 
+by yourself</t>
+  </si>
+  <si>
+    <t>Going to the movies 
+by yourself</t>
+  </si>
+  <si>
+    <t>Reading at the library</t>
+  </si>
+  <si>
+    <t>Cleaning up around 
+the house</t>
+  </si>
+  <si>
+    <t>Going to the beach 
+alone</t>
+  </si>
+  <si>
+    <t>Watching YouTube
+videos</t>
+  </si>
+  <si>
+    <t>Listening to music
+by yourself</t>
+  </si>
+  <si>
+    <t>Going to a farmer's
+market by yourself</t>
+  </si>
+  <si>
+    <t>Getting breakfast
+by yourself</t>
+  </si>
+  <si>
+    <t>Buying clothes 
+for yourself</t>
+  </si>
+  <si>
+    <t>Taking an online
+class</t>
+  </si>
+  <si>
+    <t>Playing with a pet</t>
+  </si>
+  <si>
+    <t>Driving to school
+by yourself</t>
+  </si>
+  <si>
+    <t>Going grocery shopping 
+alone</t>
+  </si>
+  <si>
+    <t>Putting gas in a car</t>
+  </si>
+  <si>
+    <t>Getting a haircut</t>
+  </si>
+  <si>
+    <t>Reading a book</t>
+  </si>
+  <si>
+    <t>Running a marathon</t>
+  </si>
+  <si>
+    <t>Going on vacation 
+by yourself</t>
+  </si>
+  <si>
+    <t>Going for a bicycle
+ride alone</t>
+  </si>
+  <si>
+    <t>Going to a museum 
+alone</t>
+  </si>
+  <si>
+    <t>Watching a new 
+episode of a television 
+show</t>
+  </si>
+  <si>
+    <t>Playing a videogame 
+at home</t>
+  </si>
+  <si>
+    <t>Studying for a test alone</t>
+  </si>
+  <si>
+    <t>Rearranging furniture 
+in your house</t>
+  </si>
+  <si>
+    <t>Painting your bedroom
+a new color</t>
+  </si>
+  <si>
+    <t>Listening to a podcast</t>
+  </si>
+  <si>
+    <t>Learning how to 
+perform card tricks</t>
+  </si>
+  <si>
+    <t>Watching the news</t>
+  </si>
+  <si>
+    <t>Doing your laundry</t>
+  </si>
+  <si>
+    <t>Looking through old 
+photo albums</t>
+  </si>
+  <si>
+    <t>Writing journal entries</t>
+  </si>
+  <si>
+    <t>Going on a hike 
+by yourself</t>
   </si>
 </sst>
 </file>
@@ -315,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -347,6 +528,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -593,22 +778,22 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.15">
@@ -618,17 +803,17 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.15">
@@ -653,7 +838,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -698,7 +883,7 @@
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="32" x14ac:dyDescent="0.2">
@@ -723,7 +908,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="30" x14ac:dyDescent="0.15">
@@ -743,7 +928,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
@@ -763,7 +948,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="30" x14ac:dyDescent="0.15">
@@ -778,7 +963,7 @@
     </row>
     <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="32" x14ac:dyDescent="0.2">
@@ -788,7 +973,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="32" x14ac:dyDescent="0.2">
@@ -823,7 +1008,7 @@
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -833,37 +1018,37 @@
     </row>
     <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="6"/>
     </row>
     <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="6"/>
     </row>
@@ -875,73 +1060,273 @@
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,7 +2214,6 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/WTP_BDM/ChoiceText_final.xlsx
+++ b/WTP_BDM/ChoiceText_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dfareri/Dropbox/Dominic/Github/fareri-lab/WTP_social/WTP_BDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D31F53-F7DF-1F4A-94FC-59193AA50CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D651B2C6-23CC-1F45-8C9C-2BE242E4194C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2920" windowWidth="28180" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,7 +751,7 @@
   <dimension ref="A1:B999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/WTP_BDM/ChoiceText_final.xlsx
+++ b/WTP_BDM/ChoiceText_final.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farerilab\Documents\GitHub\WTP_social\WTP_BDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farerilab/Documents/GitHub/WTP_social/WTP_BDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2925" windowWidth="28185" windowHeight="17535"/>
+    <workbookView xWindow="3800" yWindow="2920" windowWidth="28180" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="115">
   <si>
     <t>choices</t>
   </si>
@@ -423,19 +431,13 @@
     <t>typeCode</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>social Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">social </t>
-  </si>
-  <si>
-    <t>social media</t>
-  </si>
-  <si>
-    <t>nonsocial</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -770,19 +772,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -793,7 +795,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -815,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>60</v>
       </c>
@@ -826,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -837,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -848,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="27.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -859,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -881,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -892,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -903,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -914,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -925,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -936,7 +938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,18 +949,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -969,7 +971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -980,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
@@ -991,7 +993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>45</v>
       </c>
@@ -1057,18 +1059,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>46</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
@@ -1156,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -1167,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>47</v>
       </c>
@@ -1200,7 +1202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
         <v>31</v>
       </c>
@@ -1288,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
         <v>32</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
         <v>34</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
         <v>55</v>
       </c>
@@ -1332,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
         <v>36</v>
       </c>
@@ -1343,1555 +1345,1555 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>115</v>
+      <c r="B52" t="s">
+        <v>113</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" t="s">
         <v>113</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" t="s">
         <v>112</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" t="s">
         <v>113</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" t="s">
         <v>113</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" t="s">
         <v>113</v>
       </c>
       <c r="C57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" t="s">
         <v>112</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" t="s">
         <v>113</v>
       </c>
       <c r="C59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" t="s">
         <v>112</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" t="s">
         <v>113</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63">
         <f ca="1">C63:C102</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="12" t="s">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
